--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_161.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_161.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d82150-Reviews-Courtyard_Los_Angeles_Sherman_Oaks-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>331</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-Sherman-Oaks.h20336.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_161.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_161.xlsx
@@ -5548,7 +5548,7 @@
         <v>9696</v>
       </c>
       <c r="B3" t="n">
-        <v>133101</v>
+        <v>163919</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -5676,7 +5676,7 @@
         <v>9696</v>
       </c>
       <c r="B5" t="n">
-        <v>133102</v>
+        <v>163920</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -5741,7 +5741,7 @@
         <v>9696</v>
       </c>
       <c r="B6" t="n">
-        <v>133103</v>
+        <v>163921</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -5806,7 +5806,7 @@
         <v>9696</v>
       </c>
       <c r="B7" t="n">
-        <v>133104</v>
+        <v>163922</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -5942,7 +5942,7 @@
         <v>9696</v>
       </c>
       <c r="B9" t="n">
-        <v>133105</v>
+        <v>163923</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -6080,7 +6080,7 @@
         <v>9696</v>
       </c>
       <c r="B11" t="n">
-        <v>133106</v>
+        <v>163924</v>
       </c>
       <c r="C11" t="s">
         <v>129</v>
@@ -6145,7 +6145,7 @@
         <v>9696</v>
       </c>
       <c r="B12" t="n">
-        <v>133107</v>
+        <v>163925</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
@@ -6348,7 +6348,7 @@
         <v>9696</v>
       </c>
       <c r="B15" t="n">
-        <v>133108</v>
+        <v>163926</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -6415,7 +6415,7 @@
         <v>9696</v>
       </c>
       <c r="B16" t="n">
-        <v>133109</v>
+        <v>163927</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
@@ -6486,7 +6486,7 @@
         <v>9696</v>
       </c>
       <c r="B17" t="n">
-        <v>133110</v>
+        <v>163928</v>
       </c>
       <c r="C17" t="s">
         <v>182</v>
@@ -6557,7 +6557,7 @@
         <v>9696</v>
       </c>
       <c r="B18" t="n">
-        <v>133111</v>
+        <v>163929</v>
       </c>
       <c r="C18" t="s">
         <v>192</v>
@@ -6699,7 +6699,7 @@
         <v>9696</v>
       </c>
       <c r="B20" t="n">
-        <v>133112</v>
+        <v>163930</v>
       </c>
       <c r="C20" t="s">
         <v>211</v>
@@ -6770,7 +6770,7 @@
         <v>9696</v>
       </c>
       <c r="B21" t="n">
-        <v>133113</v>
+        <v>163931</v>
       </c>
       <c r="C21" t="s">
         <v>220</v>
@@ -6841,7 +6841,7 @@
         <v>9696</v>
       </c>
       <c r="B22" t="n">
-        <v>133114</v>
+        <v>163932</v>
       </c>
       <c r="C22" t="s">
         <v>228</v>
@@ -6912,7 +6912,7 @@
         <v>9696</v>
       </c>
       <c r="B23" t="n">
-        <v>133115</v>
+        <v>163933</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
@@ -6983,7 +6983,7 @@
         <v>9696</v>
       </c>
       <c r="B24" t="n">
-        <v>133116</v>
+        <v>163934</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
@@ -7121,7 +7121,7 @@
         <v>9696</v>
       </c>
       <c r="B26" t="n">
-        <v>133117</v>
+        <v>163935</v>
       </c>
       <c r="C26" t="s">
         <v>261</v>
@@ -7186,7 +7186,7 @@
         <v>9696</v>
       </c>
       <c r="B27" t="n">
-        <v>133118</v>
+        <v>133136</v>
       </c>
       <c r="C27" t="s">
         <v>268</v>
@@ -7468,7 +7468,7 @@
         <v>9696</v>
       </c>
       <c r="B31" t="n">
-        <v>133119</v>
+        <v>163936</v>
       </c>
       <c r="C31" t="s">
         <v>305</v>
@@ -7539,7 +7539,7 @@
         <v>9696</v>
       </c>
       <c r="B32" t="n">
-        <v>133120</v>
+        <v>163937</v>
       </c>
       <c r="C32" t="s">
         <v>314</v>
@@ -7600,7 +7600,7 @@
         <v>9696</v>
       </c>
       <c r="B33" t="n">
-        <v>133121</v>
+        <v>163938</v>
       </c>
       <c r="C33" t="s">
         <v>321</v>
@@ -7665,7 +7665,7 @@
         <v>9696</v>
       </c>
       <c r="B34" t="n">
-        <v>133122</v>
+        <v>163939</v>
       </c>
       <c r="C34" t="s">
         <v>326</v>
@@ -7726,7 +7726,7 @@
         <v>9696</v>
       </c>
       <c r="B35" t="n">
-        <v>133123</v>
+        <v>163940</v>
       </c>
       <c r="C35" t="s">
         <v>333</v>
@@ -7862,7 +7862,7 @@
         <v>9696</v>
       </c>
       <c r="B37" t="n">
-        <v>133124</v>
+        <v>163941</v>
       </c>
       <c r="C37" t="s">
         <v>352</v>
@@ -7933,7 +7933,7 @@
         <v>9696</v>
       </c>
       <c r="B38" t="n">
-        <v>133125</v>
+        <v>163942</v>
       </c>
       <c r="C38" t="s">
         <v>359</v>
@@ -8071,7 +8071,7 @@
         <v>9696</v>
       </c>
       <c r="B40" t="n">
-        <v>133126</v>
+        <v>163943</v>
       </c>
       <c r="C40" t="s">
         <v>374</v>
@@ -8266,7 +8266,7 @@
         <v>9696</v>
       </c>
       <c r="B43" t="n">
-        <v>133127</v>
+        <v>163944</v>
       </c>
       <c r="C43" t="s">
         <v>402</v>
@@ -8398,7 +8398,7 @@
         <v>9696</v>
       </c>
       <c r="B45" t="n">
-        <v>133128</v>
+        <v>163945</v>
       </c>
       <c r="C45" t="s">
         <v>421</v>
@@ -8463,7 +8463,7 @@
         <v>9696</v>
       </c>
       <c r="B46" t="n">
-        <v>133129</v>
+        <v>163946</v>
       </c>
       <c r="C46" t="s">
         <v>430</v>
@@ -8534,7 +8534,7 @@
         <v>9696</v>
       </c>
       <c r="B47" t="n">
-        <v>133130</v>
+        <v>163947</v>
       </c>
       <c r="C47" t="s">
         <v>440</v>
@@ -8930,7 +8930,7 @@
         <v>9696</v>
       </c>
       <c r="B53" t="n">
-        <v>133131</v>
+        <v>163948</v>
       </c>
       <c r="C53" t="s">
         <v>491</v>
@@ -9001,7 +9001,7 @@
         <v>9696</v>
       </c>
       <c r="B54" t="n">
-        <v>133132</v>
+        <v>163949</v>
       </c>
       <c r="C54" t="s">
         <v>500</v>
@@ -9062,7 +9062,7 @@
         <v>9696</v>
       </c>
       <c r="B55" t="n">
-        <v>133133</v>
+        <v>147039</v>
       </c>
       <c r="C55" t="s">
         <v>508</v>
@@ -9196,7 +9196,7 @@
         <v>9696</v>
       </c>
       <c r="B57" t="n">
-        <v>133134</v>
+        <v>163950</v>
       </c>
       <c r="C57" t="s">
         <v>527</v>
@@ -9261,7 +9261,7 @@
         <v>9696</v>
       </c>
       <c r="B58" t="n">
-        <v>133135</v>
+        <v>163951</v>
       </c>
       <c r="C58" t="s">
         <v>533</v>
@@ -9330,7 +9330,7 @@
         <v>9696</v>
       </c>
       <c r="B59" t="n">
-        <v>133136</v>
+        <v>163952</v>
       </c>
       <c r="C59" t="s">
         <v>542</v>
@@ -9466,7 +9466,7 @@
         <v>9696</v>
       </c>
       <c r="B61" t="n">
-        <v>133137</v>
+        <v>163953</v>
       </c>
       <c r="C61" t="s">
         <v>561</v>
@@ -9531,7 +9531,7 @@
         <v>9696</v>
       </c>
       <c r="B62" t="n">
-        <v>133138</v>
+        <v>163954</v>
       </c>
       <c r="C62" t="s">
         <v>571</v>
@@ -9667,7 +9667,7 @@
         <v>9696</v>
       </c>
       <c r="B64" t="n">
-        <v>133139</v>
+        <v>163955</v>
       </c>
       <c r="C64" t="s">
         <v>589</v>
@@ -9738,7 +9738,7 @@
         <v>9696</v>
       </c>
       <c r="B65" t="n">
-        <v>133140</v>
+        <v>163956</v>
       </c>
       <c r="C65" t="s">
         <v>598</v>
@@ -9803,7 +9803,7 @@
         <v>9696</v>
       </c>
       <c r="B66" t="n">
-        <v>133141</v>
+        <v>163957</v>
       </c>
       <c r="C66" t="s">
         <v>608</v>
@@ -9864,7 +9864,7 @@
         <v>9696</v>
       </c>
       <c r="B67" t="n">
-        <v>133142</v>
+        <v>163958</v>
       </c>
       <c r="C67" t="s">
         <v>617</v>
@@ -9994,7 +9994,7 @@
         <v>9696</v>
       </c>
       <c r="B69" t="n">
-        <v>133143</v>
+        <v>163959</v>
       </c>
       <c r="C69" t="s">
         <v>636</v>
@@ -10136,7 +10136,7 @@
         <v>9696</v>
       </c>
       <c r="B71" t="n">
-        <v>133144</v>
+        <v>163960</v>
       </c>
       <c r="C71" t="s">
         <v>654</v>
@@ -10276,7 +10276,7 @@
         <v>9696</v>
       </c>
       <c r="B73" t="n">
-        <v>133145</v>
+        <v>133134</v>
       </c>
       <c r="C73" t="s">
         <v>672</v>
@@ -10341,7 +10341,7 @@
         <v>9696</v>
       </c>
       <c r="B74" t="n">
-        <v>133146</v>
+        <v>163961</v>
       </c>
       <c r="C74" t="s">
         <v>681</v>
@@ -10483,7 +10483,7 @@
         <v>9696</v>
       </c>
       <c r="B76" t="n">
-        <v>133147</v>
+        <v>163962</v>
       </c>
       <c r="C76" t="s">
         <v>701</v>
@@ -10623,7 +10623,7 @@
         <v>9696</v>
       </c>
       <c r="B78" t="n">
-        <v>133148</v>
+        <v>163963</v>
       </c>
       <c r="C78" t="s">
         <v>720</v>
@@ -10684,7 +10684,7 @@
         <v>9696</v>
       </c>
       <c r="B79" t="n">
-        <v>133149</v>
+        <v>163964</v>
       </c>
       <c r="C79" t="s">
         <v>729</v>
@@ -10753,7 +10753,7 @@
         <v>9696</v>
       </c>
       <c r="B80" t="n">
-        <v>133150</v>
+        <v>163965</v>
       </c>
       <c r="C80" t="s">
         <v>736</v>
@@ -10893,7 +10893,7 @@
         <v>9696</v>
       </c>
       <c r="B82" t="n">
-        <v>133151</v>
+        <v>163966</v>
       </c>
       <c r="C82" t="s">
         <v>756</v>
@@ -10962,7 +10962,7 @@
         <v>9696</v>
       </c>
       <c r="B83" t="n">
-        <v>133152</v>
+        <v>163967</v>
       </c>
       <c r="C83" t="s">
         <v>765</v>
@@ -11232,7 +11232,7 @@
         <v>9696</v>
       </c>
       <c r="B87" t="n">
-        <v>133153</v>
+        <v>163968</v>
       </c>
       <c r="C87" t="s">
         <v>800</v>
@@ -11301,7 +11301,7 @@
         <v>9696</v>
       </c>
       <c r="B88" t="n">
-        <v>133154</v>
+        <v>163969</v>
       </c>
       <c r="C88" t="s">
         <v>809</v>
@@ -11372,7 +11372,7 @@
         <v>9696</v>
       </c>
       <c r="B89" t="n">
-        <v>133155</v>
+        <v>163970</v>
       </c>
       <c r="C89" t="s">
         <v>818</v>
@@ -11441,7 +11441,7 @@
         <v>9696</v>
       </c>
       <c r="B90" t="n">
-        <v>133156</v>
+        <v>163971</v>
       </c>
       <c r="C90" t="s">
         <v>828</v>
@@ -11512,7 +11512,7 @@
         <v>9696</v>
       </c>
       <c r="B91" t="n">
-        <v>133157</v>
+        <v>163972</v>
       </c>
       <c r="C91" t="s">
         <v>837</v>
@@ -11581,7 +11581,7 @@
         <v>9696</v>
       </c>
       <c r="B92" t="n">
-        <v>133158</v>
+        <v>163973</v>
       </c>
       <c r="C92" t="s">
         <v>847</v>
@@ -11719,7 +11719,7 @@
         <v>9696</v>
       </c>
       <c r="B94" t="n">
-        <v>133144</v>
+        <v>133134</v>
       </c>
       <c r="C94" t="s">
         <v>672</v>
@@ -11784,7 +11784,7 @@
         <v>9696</v>
       </c>
       <c r="B95" t="n">
-        <v>133159</v>
+        <v>163974</v>
       </c>
       <c r="C95" t="s">
         <v>875</v>
@@ -11853,7 +11853,7 @@
         <v>9696</v>
       </c>
       <c r="B96" t="n">
-        <v>133160</v>
+        <v>163975</v>
       </c>
       <c r="C96" t="s">
         <v>884</v>
@@ -11924,7 +11924,7 @@
         <v>9696</v>
       </c>
       <c r="B97" t="n">
-        <v>133161</v>
+        <v>163976</v>
       </c>
       <c r="C97" t="s">
         <v>894</v>
@@ -11993,7 +11993,7 @@
         <v>9696</v>
       </c>
       <c r="B98" t="n">
-        <v>133162</v>
+        <v>163977</v>
       </c>
       <c r="C98" t="s">
         <v>903</v>
@@ -12129,7 +12129,7 @@
         <v>9696</v>
       </c>
       <c r="B100" t="n">
-        <v>133163</v>
+        <v>163978</v>
       </c>
       <c r="C100" t="s">
         <v>921</v>
@@ -12194,7 +12194,7 @@
         <v>9696</v>
       </c>
       <c r="B101" t="n">
-        <v>133164</v>
+        <v>163979</v>
       </c>
       <c r="C101" t="s">
         <v>928</v>
@@ -12263,7 +12263,7 @@
         <v>9696</v>
       </c>
       <c r="B102" t="n">
-        <v>133165</v>
+        <v>163980</v>
       </c>
       <c r="C102" t="s">
         <v>938</v>
@@ -12332,7 +12332,7 @@
         <v>9696</v>
       </c>
       <c r="B103" t="n">
-        <v>133166</v>
+        <v>163981</v>
       </c>
       <c r="C103" t="s">
         <v>948</v>
@@ -12393,7 +12393,7 @@
         <v>9696</v>
       </c>
       <c r="B104" t="n">
-        <v>133117</v>
+        <v>133136</v>
       </c>
       <c r="C104" t="s">
         <v>268</v>
@@ -12464,7 +12464,7 @@
         <v>9696</v>
       </c>
       <c r="B105" t="n">
-        <v>133167</v>
+        <v>163982</v>
       </c>
       <c r="C105" t="s">
         <v>966</v>
@@ -12533,7 +12533,7 @@
         <v>9696</v>
       </c>
       <c r="B106" t="n">
-        <v>133168</v>
+        <v>163983</v>
       </c>
       <c r="C106" t="s">
         <v>975</v>
@@ -12602,7 +12602,7 @@
         <v>9696</v>
       </c>
       <c r="B107" t="n">
-        <v>133169</v>
+        <v>163984</v>
       </c>
       <c r="C107" t="s">
         <v>985</v>
@@ -12673,7 +12673,7 @@
         <v>9696</v>
       </c>
       <c r="B108" t="n">
-        <v>133170</v>
+        <v>163985</v>
       </c>
       <c r="C108" t="s">
         <v>994</v>
@@ -12738,7 +12738,7 @@
         <v>9696</v>
       </c>
       <c r="B109" t="n">
-        <v>133171</v>
+        <v>163986</v>
       </c>
       <c r="C109" t="s">
         <v>1001</v>
@@ -12803,7 +12803,7 @@
         <v>9696</v>
       </c>
       <c r="B110" t="n">
-        <v>133172</v>
+        <v>163987</v>
       </c>
       <c r="C110" t="s">
         <v>1010</v>
@@ -13014,7 +13014,7 @@
         <v>9696</v>
       </c>
       <c r="B113" t="n">
-        <v>133173</v>
+        <v>163988</v>
       </c>
       <c r="C113" t="s">
         <v>1036</v>
@@ -13085,7 +13085,7 @@
         <v>9696</v>
       </c>
       <c r="B114" t="n">
-        <v>133174</v>
+        <v>163989</v>
       </c>
       <c r="C114" t="s">
         <v>1046</v>
@@ -13156,7 +13156,7 @@
         <v>9696</v>
       </c>
       <c r="B115" t="n">
-        <v>133175</v>
+        <v>163990</v>
       </c>
       <c r="C115" t="s">
         <v>1052</v>
@@ -13225,7 +13225,7 @@
         <v>9696</v>
       </c>
       <c r="B116" t="n">
-        <v>133176</v>
+        <v>163991</v>
       </c>
       <c r="C116" t="s">
         <v>1061</v>
@@ -13367,7 +13367,7 @@
         <v>9696</v>
       </c>
       <c r="B118" t="n">
-        <v>133177</v>
+        <v>163992</v>
       </c>
       <c r="C118" t="s">
         <v>1077</v>
@@ -13432,7 +13432,7 @@
         <v>9696</v>
       </c>
       <c r="B119" t="n">
-        <v>133178</v>
+        <v>163993</v>
       </c>
       <c r="C119" t="s">
         <v>1086</v>
@@ -13497,7 +13497,7 @@
         <v>9696</v>
       </c>
       <c r="B120" t="n">
-        <v>133179</v>
+        <v>163994</v>
       </c>
       <c r="C120" t="s">
         <v>1094</v>
@@ -13722,7 +13722,7 @@
         <v>9696</v>
       </c>
       <c r="B123" t="n">
-        <v>133180</v>
+        <v>163995</v>
       </c>
       <c r="C123" t="s">
         <v>1119</v>
@@ -13872,7 +13872,7 @@
         <v>9696</v>
       </c>
       <c r="B125" t="n">
-        <v>133181</v>
+        <v>163996</v>
       </c>
       <c r="C125" t="s">
         <v>1134</v>
@@ -14022,7 +14022,7 @@
         <v>9696</v>
       </c>
       <c r="B127" t="n">
-        <v>133182</v>
+        <v>163997</v>
       </c>
       <c r="C127" t="s">
         <v>1153</v>
@@ -14097,7 +14097,7 @@
         <v>9696</v>
       </c>
       <c r="B128" t="n">
-        <v>133183</v>
+        <v>163998</v>
       </c>
       <c r="C128" t="s">
         <v>1163</v>
@@ -14162,7 +14162,7 @@
         <v>9696</v>
       </c>
       <c r="B129" t="n">
-        <v>133184</v>
+        <v>163999</v>
       </c>
       <c r="C129" t="s">
         <v>1171</v>
@@ -14237,7 +14237,7 @@
         <v>9696</v>
       </c>
       <c r="B130" t="n">
-        <v>133185</v>
+        <v>164000</v>
       </c>
       <c r="C130" t="s">
         <v>1178</v>
@@ -14460,7 +14460,7 @@
         <v>9696</v>
       </c>
       <c r="B133" t="n">
-        <v>133186</v>
+        <v>164001</v>
       </c>
       <c r="C133" t="s">
         <v>1205</v>
@@ -14525,7 +14525,7 @@
         <v>9696</v>
       </c>
       <c r="B134" t="n">
-        <v>133187</v>
+        <v>164002</v>
       </c>
       <c r="C134" t="s">
         <v>1215</v>
@@ -14600,7 +14600,7 @@
         <v>9696</v>
       </c>
       <c r="B135" t="n">
-        <v>133188</v>
+        <v>164003</v>
       </c>
       <c r="C135" t="s">
         <v>1225</v>
@@ -14878,7 +14878,7 @@
         <v>9696</v>
       </c>
       <c r="B139" t="n">
-        <v>133189</v>
+        <v>164004</v>
       </c>
       <c r="C139" t="s">
         <v>1255</v>
@@ -14945,7 +14945,7 @@
         <v>9696</v>
       </c>
       <c r="B140" t="n">
-        <v>133190</v>
+        <v>164005</v>
       </c>
       <c r="C140" t="s">
         <v>1262</v>
@@ -15083,7 +15083,7 @@
         <v>9696</v>
       </c>
       <c r="B142" t="n">
-        <v>133191</v>
+        <v>164006</v>
       </c>
       <c r="C142" t="s">
         <v>1275</v>
@@ -15223,7 +15223,7 @@
         <v>9696</v>
       </c>
       <c r="B144" t="n">
-        <v>133192</v>
+        <v>164007</v>
       </c>
       <c r="C144" t="s">
         <v>1289</v>
@@ -15294,7 +15294,7 @@
         <v>9696</v>
       </c>
       <c r="B145" t="n">
-        <v>133193</v>
+        <v>164008</v>
       </c>
       <c r="C145" t="s">
         <v>1296</v>
@@ -15365,7 +15365,7 @@
         <v>9696</v>
       </c>
       <c r="B146" t="n">
-        <v>133194</v>
+        <v>164009</v>
       </c>
       <c r="C146" t="s">
         <v>1303</v>
@@ -15436,7 +15436,7 @@
         <v>9696</v>
       </c>
       <c r="B147" t="n">
-        <v>133195</v>
+        <v>164010</v>
       </c>
       <c r="C147" t="s">
         <v>1311</v>
@@ -15578,7 +15578,7 @@
         <v>9696</v>
       </c>
       <c r="B149" t="n">
-        <v>133196</v>
+        <v>164011</v>
       </c>
       <c r="C149" t="s">
         <v>1323</v>
@@ -15649,7 +15649,7 @@
         <v>9696</v>
       </c>
       <c r="B150" t="n">
-        <v>133197</v>
+        <v>164012</v>
       </c>
       <c r="C150" t="s">
         <v>1330</v>
@@ -15716,7 +15716,7 @@
         <v>9696</v>
       </c>
       <c r="B151" t="n">
-        <v>133198</v>
+        <v>164013</v>
       </c>
       <c r="C151" t="s">
         <v>1334</v>
@@ -15783,7 +15783,7 @@
         <v>9696</v>
       </c>
       <c r="B152" t="n">
-        <v>133199</v>
+        <v>164014</v>
       </c>
       <c r="C152" t="s">
         <v>1341</v>
@@ -15854,7 +15854,7 @@
         <v>9696</v>
       </c>
       <c r="B153" t="n">
-        <v>133200</v>
+        <v>164015</v>
       </c>
       <c r="C153" t="s">
         <v>1349</v>
@@ -15925,7 +15925,7 @@
         <v>9696</v>
       </c>
       <c r="B154" t="n">
-        <v>133201</v>
+        <v>164016</v>
       </c>
       <c r="C154" t="s">
         <v>1355</v>
@@ -15996,7 +15996,7 @@
         <v>9696</v>
       </c>
       <c r="B155" t="n">
-        <v>133202</v>
+        <v>164017</v>
       </c>
       <c r="C155" t="s">
         <v>1360</v>
@@ -16067,7 +16067,7 @@
         <v>9696</v>
       </c>
       <c r="B156" t="n">
-        <v>133203</v>
+        <v>164018</v>
       </c>
       <c r="C156" t="s">
         <v>1367</v>
@@ -16138,7 +16138,7 @@
         <v>9696</v>
       </c>
       <c r="B157" t="n">
-        <v>133204</v>
+        <v>164019</v>
       </c>
       <c r="C157" t="s">
         <v>1373</v>
@@ -16205,7 +16205,7 @@
         <v>9696</v>
       </c>
       <c r="B158" t="n">
-        <v>133205</v>
+        <v>164020</v>
       </c>
       <c r="C158" t="s">
         <v>1379</v>
@@ -16339,7 +16339,7 @@
         <v>9696</v>
       </c>
       <c r="B160" t="n">
-        <v>133206</v>
+        <v>164021</v>
       </c>
       <c r="C160" t="s">
         <v>1394</v>
@@ -16406,7 +16406,7 @@
         <v>9696</v>
       </c>
       <c r="B161" t="n">
-        <v>133207</v>
+        <v>164022</v>
       </c>
       <c r="C161" t="s">
         <v>1400</v>
@@ -16477,7 +16477,7 @@
         <v>9696</v>
       </c>
       <c r="B162" t="n">
-        <v>133208</v>
+        <v>164023</v>
       </c>
       <c r="C162" t="s">
         <v>1407</v>
@@ -16548,7 +16548,7 @@
         <v>9696</v>
       </c>
       <c r="B163" t="n">
-        <v>133209</v>
+        <v>148524</v>
       </c>
       <c r="C163" t="s">
         <v>1415</v>
@@ -16619,7 +16619,7 @@
         <v>9696</v>
       </c>
       <c r="B164" t="n">
-        <v>133210</v>
+        <v>164024</v>
       </c>
       <c r="C164" t="s">
         <v>1422</v>
@@ -16690,7 +16690,7 @@
         <v>9696</v>
       </c>
       <c r="B165" t="n">
-        <v>133211</v>
+        <v>164025</v>
       </c>
       <c r="C165" t="s">
         <v>1430</v>
@@ -16761,7 +16761,7 @@
         <v>9696</v>
       </c>
       <c r="B166" t="n">
-        <v>133212</v>
+        <v>164026</v>
       </c>
       <c r="C166" t="s">
         <v>1437</v>
@@ -16974,7 +16974,7 @@
         <v>9696</v>
       </c>
       <c r="B169" t="n">
-        <v>133213</v>
+        <v>164027</v>
       </c>
       <c r="C169" t="s">
         <v>1458</v>
@@ -17045,7 +17045,7 @@
         <v>9696</v>
       </c>
       <c r="B170" t="n">
-        <v>133214</v>
+        <v>164028</v>
       </c>
       <c r="C170" t="s">
         <v>1466</v>
@@ -17116,7 +17116,7 @@
         <v>9696</v>
       </c>
       <c r="B171" t="n">
-        <v>133215</v>
+        <v>164029</v>
       </c>
       <c r="C171" t="s">
         <v>1473</v>
@@ -17187,7 +17187,7 @@
         <v>9696</v>
       </c>
       <c r="B172" t="n">
-        <v>133216</v>
+        <v>164030</v>
       </c>
       <c r="C172" t="s">
         <v>1480</v>
@@ -17258,7 +17258,7 @@
         <v>9696</v>
       </c>
       <c r="B173" t="n">
-        <v>133217</v>
+        <v>164031</v>
       </c>
       <c r="C173" t="s">
         <v>1487</v>
@@ -17329,7 +17329,7 @@
         <v>9696</v>
       </c>
       <c r="B174" t="n">
-        <v>133218</v>
+        <v>164032</v>
       </c>
       <c r="C174" t="s">
         <v>1494</v>
@@ -17400,7 +17400,7 @@
         <v>9696</v>
       </c>
       <c r="B175" t="n">
-        <v>133219</v>
+        <v>164033</v>
       </c>
       <c r="C175" t="s">
         <v>1501</v>
@@ -17471,7 +17471,7 @@
         <v>9696</v>
       </c>
       <c r="B176" t="n">
-        <v>133220</v>
+        <v>164034</v>
       </c>
       <c r="C176" t="s">
         <v>1509</v>
@@ -17542,7 +17542,7 @@
         <v>9696</v>
       </c>
       <c r="B177" t="n">
-        <v>133221</v>
+        <v>164035</v>
       </c>
       <c r="C177" t="s">
         <v>1517</v>
@@ -17611,7 +17611,7 @@
         <v>9696</v>
       </c>
       <c r="B178" t="n">
-        <v>133222</v>
+        <v>164036</v>
       </c>
       <c r="C178" t="s">
         <v>1525</v>
@@ -17682,7 +17682,7 @@
         <v>9696</v>
       </c>
       <c r="B179" t="n">
-        <v>133223</v>
+        <v>164037</v>
       </c>
       <c r="C179" t="s">
         <v>1533</v>
@@ -17753,7 +17753,7 @@
         <v>9696</v>
       </c>
       <c r="B180" t="n">
-        <v>133224</v>
+        <v>164038</v>
       </c>
       <c r="C180" t="s">
         <v>1541</v>
@@ -17824,7 +17824,7 @@
         <v>9696</v>
       </c>
       <c r="B181" t="n">
-        <v>133225</v>
+        <v>164039</v>
       </c>
       <c r="C181" t="s">
         <v>1548</v>
@@ -17895,7 +17895,7 @@
         <v>9696</v>
       </c>
       <c r="B182" t="n">
-        <v>133226</v>
+        <v>164040</v>
       </c>
       <c r="C182" t="s">
         <v>1555</v>
@@ -17952,7 +17952,7 @@
         <v>9696</v>
       </c>
       <c r="B183" t="n">
-        <v>133227</v>
+        <v>164041</v>
       </c>
       <c r="C183" t="s">
         <v>1561</v>
@@ -18009,7 +18009,7 @@
         <v>9696</v>
       </c>
       <c r="B184" t="n">
-        <v>133228</v>
+        <v>164042</v>
       </c>
       <c r="C184" t="s">
         <v>1567</v>
@@ -18067,7 +18067,7 @@
         <v>9696</v>
       </c>
       <c r="B185" t="n">
-        <v>133229</v>
+        <v>164043</v>
       </c>
       <c r="C185" t="s">
         <v>1571</v>
@@ -18138,7 +18138,7 @@
         <v>9696</v>
       </c>
       <c r="B186" t="n">
-        <v>133230</v>
+        <v>164044</v>
       </c>
       <c r="C186" t="s">
         <v>1579</v>
@@ -18265,7 +18265,7 @@
         <v>9696</v>
       </c>
       <c r="B188" t="n">
-        <v>133231</v>
+        <v>164045</v>
       </c>
       <c r="C188" t="s">
         <v>1589</v>
@@ -18332,7 +18332,7 @@
         <v>9696</v>
       </c>
       <c r="B189" t="n">
-        <v>133232</v>
+        <v>164046</v>
       </c>
       <c r="C189" t="s">
         <v>1596</v>
@@ -18453,7 +18453,7 @@
         <v>9696</v>
       </c>
       <c r="B191" t="n">
-        <v>133233</v>
+        <v>164047</v>
       </c>
       <c r="C191" t="s">
         <v>1606</v>
